--- a/database/seeds/csvs/camps.xlsx
+++ b/database/seeds/csvs/camps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Poom\ICT\Senior\campass\database\seeds\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE6D7E0-0A1A-4B49-88AB-CB3F253F5496}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C89ECF-054A-440B-AFAF-A02E8C168C68}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DF051AC-2325-4821-AF8F-205C9028BC53}"/>
   </bookViews>
@@ -1025,7 +1025,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-m\-d\ h:m:s"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-m\-d\ h:m:s"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1126,7 +1126,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1134,22 +1134,22 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-m\-d\ h:m:s"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-m\-d\ h:m:s"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-m\-d\ h:m:s"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-m\-d\ h:m:s"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-m\-d\ h:m:s"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-m\-d\ h:m:s"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-m\-d\ h:m:s"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-m\-d\ h:m:s"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-m\-d\ h:m:s"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-m\-d\ h:m:s"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-m\-d\ h:m:s"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-m\-d\ h:m:s"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1513,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324C8412-2BD7-48F7-B020-E53CBC6718C3}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/database/seeds/csvs/camps.xlsx
+++ b/database/seeds/csvs/camps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Poom\ICT\Senior\campass\database\seeds\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C89ECF-054A-440B-AFAF-A02E8C168C68}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF340436-BD1F-44FE-8E9C-3FBA75DC248B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DF051AC-2325-4821-AF8F-205C9028BC53}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="331">
   <si>
     <t>camp_category_id</t>
   </si>
@@ -1018,6 +1018,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/borncamp.swu</t>
+  </si>
+  <si>
+    <t>acceptable_education_levels</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1188,7 @@
     <tableColumn id="4" xr3:uid="{709678DB-CF65-40E1-AD96-EF512DE89BB3}" name="camp_procedure_id"/>
     <tableColumn id="5" xr3:uid="{9FC47684-F7A8-47DD-96BF-59CE0DFBF354}" name="acceptable_regions"/>
     <tableColumn id="6" xr3:uid="{A0E37CC7-6909-47ED-9EA0-B7143B7A562B}" name="acceptable_programs"/>
-    <tableColumn id="7" xr3:uid="{08B0DF36-F903-48EF-AFDA-2E35C7879F70}" name="acceptable_years"/>
+    <tableColumn id="7" xr3:uid="{08B0DF36-F903-48EF-AFDA-2E35C7879F70}" name="acceptable_education_levels"/>
     <tableColumn id="8" xr3:uid="{98B251A6-C5FF-45D5-9A0B-825B89C00B74}" name="name_en"/>
     <tableColumn id="9" xr3:uid="{B1F99D29-06C9-4EA7-83D4-C76F667587AF}" name="name_th"/>
     <tableColumn id="10" xr3:uid="{B32077D8-9CE7-4DC0-A749-4E824DF181D9}" name="short_description_en"/>
@@ -1514,7 +1517,7 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1574,7 +1577,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
